--- a/Testdata/Non_Oncology/DataFiles/ManagePopulations/NonOncologyManagePopulationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManagePopulations/NonOncologyManagePopulationsPage_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManagePopulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CD152-298A-4732-9285-D86D979985F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F7E9C-676E-4E08-BA06-BC7AFAB535F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>T-2</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>C-5</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1200,9 @@
       <c r="N5" t="s">
         <v>64</v>
       </c>
+      <c r="O5" t="s">
+        <v>175</v>
+      </c>
       <c r="P5" t="s">
         <v>97</v>
       </c>
@@ -1219,6 +1228,9 @@
       </c>
       <c r="N6" t="s">
         <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>176</v>
       </c>
       <c r="P6" t="s">
         <v>98</v>

--- a/Testdata/Non_Oncology/DataFiles/ManagePopulations/NonOncologyManagePopulationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ManagePopulations/NonOncologyManagePopulationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ManagePopulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F7E9C-676E-4E08-BA06-BC7AFAB535F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10DAA0-2F04-4180-B279-D41356303C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,6 +1220,9 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
@@ -1249,6 +1252,9 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
@@ -1269,6 +1275,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
@@ -1289,6 +1298,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="K9" t="s">
         <v>21</v>
       </c>
@@ -1309,6 +1321,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
       <c r="K10" t="s">
         <v>22</v>
       </c>
